--- a/DE/MSExcel/Despacho_Economico_Basico.xlsx
+++ b/DE/MSExcel/Despacho_Economico_Basico.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/pm_deoliveiradejes_uniandes_edu_co/Documents/MASEP-OPE/DE/MSExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0D861E7-0F92-5647-875F-72CADF3E2C2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{C0D861E7-0F92-5647-875F-72CADF3E2C2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{009F1964-DE47-7841-BDC4-AA71B450D199}"/>
   <bookViews>
-    <workbookView xWindow="38580" yWindow="2340" windowWidth="28040" windowHeight="17440" xr2:uid="{4DA1A984-D1F4-6F48-89E4-8555A0E112BF}"/>
+    <workbookView xWindow="36280" yWindow="2840" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{4DA1A984-D1F4-6F48-89E4-8555A0E112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
     <sheet name="direct" sheetId="2" r:id="rId2"/>
-    <sheet name="Sensitivity Report 1" sheetId="4" r:id="rId3"/>
+    <sheet name="Sensitivity Report 1" sheetId="6" r:id="rId3"/>
     <sheet name="NLP" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -561,12 +561,6 @@
     <t>Microsoft Excel 16.47 Sensitivity Report</t>
   </si>
   <si>
-    <t>Worksheet: [Despacho_Económico_Basico.xlsx]NLP</t>
-  </si>
-  <si>
-    <t>Report Created: 3/28/21 10:49:40 AM</t>
-  </si>
-  <si>
     <t>Variable Cells</t>
   </si>
   <si>
@@ -597,19 +591,25 @@
     <t>Multiplier</t>
   </si>
   <si>
-    <t>$G$17</t>
-  </si>
-  <si>
-    <t>PG1 b  =</t>
-  </si>
-  <si>
-    <t>$G$18</t>
-  </si>
-  <si>
-    <t>$G$19</t>
-  </si>
-  <si>
-    <t>PG1+PG2 b  =</t>
+    <t>Worksheet: [Despacho_Economico_Basico.xlsx]NLP</t>
+  </si>
+  <si>
+    <t>Report Created: 3/28/21 11:41:36 AM</t>
+  </si>
+  <si>
+    <t>$G$11</t>
+  </si>
+  <si>
+    <t>PG1 Ejemplo 1: Despacho Económico Básico</t>
+  </si>
+  <si>
+    <t>$G$12</t>
+  </si>
+  <si>
+    <t>$G$13</t>
+  </si>
+  <si>
+    <t>PG1+PG2 Ejemplo 1: Despacho Económico Básico</t>
   </si>
 </sst>
 </file>
@@ -912,13 +912,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1383,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C60A3A-DF61-1B4E-9BFF-C0C71A823190}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1526,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCFC435-EA30-034D-BA4E-88C076BED87F}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C11" s="25">
         <f>S14+T14*O17+(1/2)*U14*O17^2</f>
-        <v>6127.7777777777801</v>
+        <v>13461.111111111115</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>20</v>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="C12" s="26">
         <f>S15+T15*O18+(1/2)*U15*O18^2</f>
-        <v>2088.8888888888878</v>
+        <v>5755.5555555555547</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>20</v>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C13" s="27">
         <f>SUM(C11:C12)</f>
-        <v>8216.6666666666679</v>
+        <v>19216.666666666672</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>20</v>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="M14" s="16">
         <f>S19</f>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="R14" s="9">
         <v>1</v>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="C15" s="25">
         <f>O19*O17</f>
-        <v>7388.8888888888905</v>
+        <v>18055.555555555558</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>20</v>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C16" s="26">
         <f>O19*O18</f>
-        <v>2111.1111111111099</v>
+        <v>6944.4444444444425</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>20</v>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="C17" s="27">
         <f>SUM(C15:C16)</f>
-        <v>9500</v>
+        <v>25000</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>20</v>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="O17" s="22">
         <f t="array" ref="O17:O19">MMULT(I17:K19,M17:M19)</f>
-        <v>233.3333333333334</v>
+        <v>433.33333333333343</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>21</v>
@@ -1834,7 +1834,7 @@
         <v>14</v>
       </c>
       <c r="O18" s="22">
-        <v>66.666666666666629</v>
+        <v>166.66666666666663</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>21</v>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="C19" s="25">
         <f>C15-C11</f>
-        <v>1261.1111111111104</v>
+        <v>4594.4444444444434</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>20</v>
@@ -1868,10 +1868,10 @@
       </c>
       <c r="M19" s="16">
         <f>M14</f>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="O19" s="22">
-        <v>31.666666666666664</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>22</v>
@@ -1880,8 +1880,7 @@
         <v>10</v>
       </c>
       <c r="S19" s="11">
-        <f>database!C18</f>
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -1893,7 +1892,7 @@
       </c>
       <c r="C20" s="26">
         <f>C16-C12</f>
-        <v>22.222222222222172</v>
+        <v>1188.8888888888878</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>20</v>
@@ -1908,7 +1907,7 @@
       </c>
       <c r="C21" s="27">
         <f>SUM(C19:C20)</f>
-        <v>1283.3333333333326</v>
+        <v>5783.3333333333312</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>20</v>
@@ -1937,7 +1936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD4E459-5657-5746-B650-8A3113744E33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D645412E-C371-0144-90E2-7476387808FE}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1948,7 +1947,7 @@
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1959,41 +1958,41 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="32" t="s">
+      <c r="D8" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="E8" s="33" t="s">
         <v>43</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2004,7 +2003,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="29">
-        <v>233.3333333333334</v>
+        <v>433.33333267545385</v>
       </c>
       <c r="E9" s="29">
         <v>0</v>
@@ -2016,7 +2015,7 @@
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30">
-        <v>66.666666666666629</v>
+        <v>166.66666832454609</v>
       </c>
       <c r="E10" s="30">
         <v>0</v>
@@ -2024,31 +2023,31 @@
     </row>
     <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2059,10 +2058,10 @@
         <v>53</v>
       </c>
       <c r="D15" s="30">
-        <v>300</v>
+        <v>600.00000099999988</v>
       </c>
       <c r="E15" s="30">
-        <v>31.666671752929688</v>
+        <v>41.666679382324219</v>
       </c>
     </row>
   </sheetData>
@@ -2075,7 +2074,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2130,7 +2129,7 @@
       </c>
       <c r="C11" s="25">
         <f>K14+L14*G11+(1/2)*M14*G11^2</f>
-        <v>6127.7777777777801</v>
+        <v>13461.111083699467</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>20</v>
@@ -2139,7 +2138,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="22">
-        <v>233.3333333333334</v>
+        <v>433.33333267545385</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>21</v>
@@ -2157,7 +2156,7 @@
       </c>
       <c r="C12" s="26">
         <f>K15+L15*G12+(1/2)*M15*G12^2</f>
-        <v>2088.8888888888878</v>
+        <v>5755.5556246338647</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>20</v>
@@ -2169,7 +2168,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="22">
-        <v>66.666666666666629</v>
+        <v>166.66666832454609</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>21</v>
@@ -2186,9 +2185,9 @@
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="31">
         <f>SUM(C11:C12)</f>
-        <v>8216.6666666666679</v>
+        <v>19216.66670833333</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>20</v>
@@ -2198,7 +2197,7 @@
       </c>
       <c r="G13" s="7">
         <f>G11+G12</f>
-        <v>300</v>
+        <v>600.00000099999988</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>21</v>
@@ -2226,7 +2225,7 @@
       </c>
       <c r="G14" s="3">
         <f>'Sensitivity Report 1'!E15</f>
-        <v>31.666671752929688</v>
+        <v>41.666679382324219</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>22</v>
@@ -2256,7 +2255,7 @@
       </c>
       <c r="C15" s="25">
         <f>G14*G11</f>
-        <v>7388.8900756835956</v>
+        <v>18055.561038262174</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>20</v>
@@ -2286,7 +2285,7 @@
       </c>
       <c r="C16" s="26">
         <f>G14*G12</f>
-        <v>2111.1114501953111</v>
+        <v>6944.446632799034</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>20</v>
@@ -2304,7 +2303,7 @@
       </c>
       <c r="C17" s="27">
         <f>SUM(C15:C16)</f>
-        <v>9500.0015258789062</v>
+        <v>25000.007671061208</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>20</v>
@@ -2328,7 +2327,7 @@
       </c>
       <c r="C19" s="25">
         <f>C15-C11</f>
-        <v>1261.1122979058155</v>
+        <v>4594.4499545627077</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>20</v>
@@ -2337,8 +2336,7 @@
         <v>10</v>
       </c>
       <c r="K19" s="11">
-        <f>database!C18</f>
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -2350,7 +2348,7 @@
       </c>
       <c r="C20" s="26">
         <f>C16-C12</f>
-        <v>22.222561306423358</v>
+        <v>1188.8910081651693</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>20</v>
@@ -2365,7 +2363,7 @@
       </c>
       <c r="C21" s="27">
         <f>SUM(C19:C20)</f>
-        <v>1283.3348592122388</v>
+        <v>5783.340962727877</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>20</v>

--- a/DE/MSExcel/Despacho_Economico_Basico.xlsx
+++ b/DE/MSExcel/Despacho_Economico_Basico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/pm_deoliveiradejes_uniandes_edu_co/Documents/MASEP-OPE/DE/MSExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{C0D861E7-0F92-5647-875F-72CADF3E2C2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{009F1964-DE47-7841-BDC4-AA71B450D199}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{C0D861E7-0F92-5647-875F-72CADF3E2C2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E9805DAB-C8AB-DC44-A75D-AFD83DD45A9E}"/>
   <bookViews>
-    <workbookView xWindow="36280" yWindow="2840" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{4DA1A984-D1F4-6F48-89E4-8555A0E112BF}"/>
+    <workbookView xWindow="36280" yWindow="2840" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{4DA1A984-D1F4-6F48-89E4-8555A0E112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
   <si>
     <t>Operación Económica de Sistemas de Potencia</t>
   </si>
@@ -1384,7 +1384,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1410,7 +1410,7 @@
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1492,7 +1492,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>21</v>
@@ -1514,11 +1514,8 @@
     <row r="32" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{6D0487F0-A890-EB48-8D4C-28A72C1BE982}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1526,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCFC435-EA30-034D-BA4E-88C076BED87F}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1564,12 +1561,7 @@
     <row r="5" spans="1:21" s="4" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1880,6 +1872,7 @@
         <v>10</v>
       </c>
       <c r="S19" s="11">
+        <f>database!C18</f>
         <v>600</v>
       </c>
     </row>
@@ -1927,11 +1920,8 @@
     <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{B58245A9-516A-C449-84D1-5214B0D7C862}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2073,8 +2063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74410A91-2D92-814C-B795-1522C93EBDA1}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2106,12 +2096,7 @@
     <row r="5" spans="1:13" s="4" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2336,6 +2321,7 @@
         <v>10</v>
       </c>
       <c r="K19" s="11">
+        <f>database!C18</f>
         <v>600</v>
       </c>
     </row>
@@ -2382,10 +2368,7 @@
     <row r="32" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{888D2F32-6B11-AF4D-B458-FD2540DEB59E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/DE/MSExcel/Despacho_Economico_Basico.xlsx
+++ b/DE/MSExcel/Despacho_Economico_Basico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/pm_deoliveiradejes_uniandes_edu_co/Documents/MASEP-OPE/DE/MSExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{C0D861E7-0F92-5647-875F-72CADF3E2C2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E9805DAB-C8AB-DC44-A75D-AFD83DD45A9E}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{C0D861E7-0F92-5647-875F-72CADF3E2C2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9233319D-4824-E74C-9483-0F464E8172BD}"/>
   <bookViews>
-    <workbookView xWindow="36280" yWindow="2840" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{4DA1A984-D1F4-6F48-89E4-8555A0E112BF}"/>
+    <workbookView xWindow="36280" yWindow="2820" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{4DA1A984-D1F4-6F48-89E4-8555A0E112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1081,6 +1081,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>143784</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>67732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>440267</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>153313</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B754B6C8-B53D-FB4E-84DF-7975E6AF8B5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6112784" y="1642532"/>
+          <a:ext cx="6104616" cy="2727181"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2064,7 +2114,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
